--- a/Data_Science/2_Analysis/Excel_Chap03/sales_2013.xlsx
+++ b/Data_Science/2_Analysis/Excel_Chap03/sales_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="21480" windowHeight="13880"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="21480" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="january_2013" sheetId="2" r:id="rId1"/>
@@ -145,16 +145,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,12 +188,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,18 +473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -511,7 +520,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2345</v>
       </c>
@@ -528,7 +537,7 @@
         <v>41280</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3456</v>
       </c>
@@ -545,7 +554,7 @@
         <v>41285</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4567</v>
       </c>
@@ -562,7 +571,7 @@
         <v>41292</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5678</v>
       </c>
@@ -579,7 +588,7 @@
         <v>41298</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6789</v>
       </c>
@@ -597,7 +606,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -610,18 +621,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9876</v>
       </c>
@@ -655,7 +666,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -672,7 +683,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7654</v>
       </c>
@@ -689,7 +700,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -706,7 +717,7 @@
         <v>41322</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5432</v>
       </c>
@@ -723,7 +734,7 @@
         <v>41326</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -741,6 +752,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -754,18 +766,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -799,7 +811,7 @@
         <v>41337</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -816,7 +828,7 @@
         <v>41341</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2345</v>
       </c>
@@ -833,7 +845,7 @@
         <v>41350</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -850,7 +862,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3456</v>
       </c>
@@ -867,7 +879,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -885,6 +897,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <extLst>
